--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/ILLINOIS_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/ILLINOIS_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1656"/>
+  <dimension ref="A1:D1650"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C34">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C36">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C44">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C67">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C76">
@@ -1382,7 +1382,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C77">
@@ -1829,7 +1829,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C111">
@@ -1868,7 +1868,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C114">
@@ -2037,7 +2037,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C127">
@@ -2050,7 +2050,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C128">
@@ -2328,7 +2328,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C149">
@@ -2502,7 +2502,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C162">
@@ -2528,7 +2528,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2585,7 +2585,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C168">
@@ -2696,7 +2696,7 @@
         <v>41</v>
       </c>
       <c r="D176">
-        <v>0.0009750297265160523</v>
+        <v>0.0009750297265160524</v>
       </c>
     </row>
     <row r="177">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C183">
@@ -2967,7 +2967,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C197">
@@ -3019,7 +3019,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C201">
@@ -3110,7 +3110,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C208">
@@ -3123,7 +3123,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C209">
@@ -3136,7 +3136,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C210">
@@ -3266,12 +3266,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C220">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C223">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C224">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C231">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C237">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C241">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C248">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C256">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C257">
@@ -3921,7 +3921,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C270">
@@ -4090,7 +4090,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C283">
@@ -4103,7 +4103,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C284">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>San Simón de Guerero</t>
+          <t>San Simón De Guerero</t>
         </is>
       </c>
       <c r="C286">
@@ -4155,7 +4155,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C288">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C297">
@@ -4285,7 +4285,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C298">
@@ -4467,7 +4467,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C312">
@@ -4545,7 +4545,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C318">
@@ -4558,7 +4558,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C319">
@@ -4571,7 +4571,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C320">
@@ -4584,7 +4584,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C321">
@@ -4727,7 +4727,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -4771,7 +4771,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C335">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C336">
@@ -4888,7 +4888,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C344">
@@ -4940,7 +4940,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C348">
@@ -5044,7 +5044,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C356">
@@ -5096,7 +5096,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C360">
@@ -5122,7 +5122,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C362">
@@ -5148,7 +5148,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C364">
@@ -5174,7 +5174,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C366">
@@ -5200,7 +5200,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C368">
@@ -5265,7 +5265,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C373">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C379">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C381">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C382">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C386">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C387">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C390">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C393">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C394">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C395">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C396">
@@ -5639,7 +5639,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C401">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C402">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C406">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C407">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C413">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C414">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C416">
@@ -5847,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C417">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C419">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C422">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C435">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C437">
@@ -6133,7 +6133,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C439">
@@ -6159,7 +6159,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C441">
@@ -6198,7 +6198,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C444">
@@ -6211,7 +6211,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C445">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C457">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C462">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C463">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C469">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C474">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C478">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C481">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C487">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C488">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C490">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C491">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C492">
@@ -6866,7 +6866,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C495">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C501">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C505">
@@ -7022,7 +7022,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C507">
@@ -7035,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C508">
@@ -7074,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C511">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C518">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C519">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C522">
@@ -7287,7 +7287,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C527">
@@ -7352,7 +7352,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C532">
@@ -7378,7 +7378,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C534">
@@ -7391,7 +7391,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C535">
@@ -7469,7 +7469,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C541">
@@ -7547,7 +7547,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C547">
@@ -7560,7 +7560,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C548">
@@ -7606,7 +7606,7 @@
         <v>41</v>
       </c>
       <c r="D551">
-        <v>0.0009750297265160523</v>
+        <v>0.0009750297265160524</v>
       </c>
     </row>
     <row r="552">
@@ -7677,7 +7677,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C557">
@@ -7742,7 +7742,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C562">
@@ -7755,7 +7755,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C563">
@@ -7768,7 +7768,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C564">
@@ -7820,7 +7820,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C568">
@@ -7898,7 +7898,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C574">
@@ -7911,7 +7911,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C575">
@@ -8015,7 +8015,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C583">
@@ -8080,7 +8080,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C588">
@@ -8093,7 +8093,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C589">
@@ -8119,7 +8119,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C591">
@@ -8158,7 +8158,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C594">
@@ -8171,7 +8171,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C595">
@@ -8184,7 +8184,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C596">
@@ -8197,7 +8197,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C597">
@@ -8236,7 +8236,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C600">
@@ -8249,7 +8249,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C601">
@@ -8288,7 +8288,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C604">
@@ -8340,7 +8340,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C608">
@@ -8353,7 +8353,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C609">
@@ -8392,7 +8392,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C612">
@@ -8405,7 +8405,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C613">
@@ -8535,7 +8535,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C623">
@@ -8548,7 +8548,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C624">
@@ -8561,7 +8561,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C625">
@@ -8574,7 +8574,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C626">
@@ -8639,7 +8639,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C631">
@@ -8652,7 +8652,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C632">
@@ -8691,7 +8691,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C635">
@@ -8704,7 +8704,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C636">
@@ -8820,7 +8820,7 @@
         <v>41</v>
       </c>
       <c r="D644">
-        <v>0.0009750297265160523</v>
+        <v>0.0009750297265160524</v>
       </c>
     </row>
     <row r="645">
@@ -9047,7 +9047,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C662">
@@ -9073,7 +9073,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C664">
@@ -9496,7 +9496,7 @@
         <v>41</v>
       </c>
       <c r="D696">
-        <v>0.0009750297265160523</v>
+        <v>0.0009750297265160524</v>
       </c>
     </row>
     <row r="697">
@@ -9918,7 +9918,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C729">
@@ -10261,7 +10261,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C755">
@@ -10365,7 +10365,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C763">
@@ -10417,7 +10417,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C767">
@@ -10495,7 +10495,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C773">
@@ -10508,7 +10508,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C774">
@@ -10612,7 +10612,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C782">
@@ -10656,7 +10656,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C785">
@@ -10695,7 +10695,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C788">
@@ -10786,7 +10786,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C795">
@@ -10832,7 +10832,7 @@
         <v>38</v>
       </c>
       <c r="D798">
-        <v>0.0009036860879904875</v>
+        <v>0.0009036860879904876</v>
       </c>
     </row>
     <row r="799">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C808">
@@ -11116,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C820">
@@ -11155,7 +11155,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C823">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C827">
@@ -11290,7 +11290,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C833">
@@ -11303,7 +11303,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C834">
@@ -11368,7 +11368,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerero</t>
+          <t>Cuilápam De Guerero</t>
         </is>
       </c>
       <c r="C839">
@@ -11381,7 +11381,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C840">
@@ -11394,7 +11394,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C841">
@@ -11420,7 +11420,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C843">
@@ -11433,7 +11433,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C844">
@@ -11446,7 +11446,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C845">
@@ -11459,7 +11459,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C846">
@@ -11472,7 +11472,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C847">
@@ -11485,7 +11485,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C848">
@@ -11498,7 +11498,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C849">
@@ -11602,7 +11602,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C857">
@@ -11615,7 +11615,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C858">
@@ -11641,7 +11641,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C860">
@@ -11667,7 +11667,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C862">
@@ -11693,7 +11693,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C864">
@@ -11706,7 +11706,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C865">
@@ -11719,7 +11719,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C866">
@@ -11745,7 +11745,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C868">
@@ -11758,7 +11758,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C869">
@@ -11940,7 +11940,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C883">
@@ -11966,7 +11966,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C885">
@@ -12031,7 +12031,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C890">
@@ -12265,7 +12265,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C908">
@@ -12382,7 +12382,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C917">
@@ -12720,7 +12720,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C943">
@@ -12824,7 +12824,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C951">
@@ -12837,7 +12837,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C952">
@@ -12993,7 +12993,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C964">
@@ -13058,7 +13058,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C969">
@@ -13240,7 +13240,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C983">
@@ -13253,7 +13253,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C984">
@@ -13370,7 +13370,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C993">
@@ -13539,7 +13539,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1006">
@@ -13975,7 +13975,7 @@
         <v>38</v>
       </c>
       <c r="D1039">
-        <v>0.0009036860879904875</v>
+        <v>0.0009036860879904876</v>
       </c>
     </row>
     <row r="1040">
@@ -14007,7 +14007,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1042">
@@ -14189,7 +14189,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1056">
@@ -14202,7 +14202,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1057">
@@ -14215,7 +14215,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1058">
@@ -14241,7 +14241,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1060">
@@ -14254,7 +14254,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1061">
@@ -14267,7 +14267,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1062">
@@ -14293,7 +14293,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1064">
@@ -14306,7 +14306,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1065">
@@ -14319,7 +14319,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1066">
@@ -14332,7 +14332,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1067">
@@ -14358,7 +14358,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1069">
@@ -14397,7 +14397,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1072">
@@ -14649,7 +14649,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerero</t>
+          <t>Ayotoxco De Guerero</t>
         </is>
       </c>
       <c r="C1091">
@@ -14714,7 +14714,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1096">
@@ -14792,7 +14792,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1102">
@@ -14922,7 +14922,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1112">
@@ -14961,7 +14961,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1115">
@@ -14974,7 +14974,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1116">
@@ -15169,7 +15169,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1131">
@@ -15182,7 +15182,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1132">
@@ -15234,7 +15234,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1136">
@@ -15247,7 +15247,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C1137">
@@ -15286,7 +15286,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1140">
@@ -15416,7 +15416,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1150">
@@ -15429,7 +15429,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1151">
@@ -15546,7 +15546,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1160">
@@ -15806,7 +15806,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1180">
@@ -15858,7 +15858,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1184">
@@ -15871,7 +15871,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1185">
@@ -15962,7 +15962,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1192">
@@ -16066,7 +16066,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1200">
@@ -16079,7 +16079,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1201">
@@ -16144,7 +16144,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1206">
@@ -16170,7 +16170,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1208">
@@ -16235,7 +16235,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1213">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1244">
@@ -16656,7 +16656,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1245">
@@ -16695,7 +16695,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1248">
@@ -16708,7 +16708,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1249">
@@ -16734,7 +16734,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1251">
@@ -16773,7 +16773,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1254">
@@ -16926,7 +16926,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1265">
@@ -17004,7 +17004,7 @@
     <row r="1271">
       <c r="B1271" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1271">
@@ -17037,7 +17037,7 @@
         <v>38</v>
       </c>
       <c r="D1273">
-        <v>0.0009036860879904875</v>
+        <v>0.0009036860879904876</v>
       </c>
     </row>
     <row r="1274">
@@ -17108,7 +17108,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1279">
@@ -17186,7 +17186,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1285">
@@ -17225,7 +17225,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1288">
@@ -17251,7 +17251,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1290">
@@ -17342,7 +17342,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1297">
@@ -17394,7 +17394,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1301">
@@ -17407,7 +17407,7 @@
     <row r="1302">
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1302">
@@ -17420,7 +17420,7 @@
     <row r="1303">
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1303">
@@ -17433,7 +17433,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1304">
@@ -17588,7 +17588,7 @@
         <v>38</v>
       </c>
       <c r="D1315">
-        <v>0.0009036860879904875</v>
+        <v>0.0009036860879904876</v>
       </c>
     </row>
     <row r="1316">
@@ -17846,7 +17846,7 @@
     <row r="1335">
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1335">
@@ -17911,7 +17911,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>San Felipe de Jesús</t>
+          <t>San Felipe De Jesús</t>
         </is>
       </c>
       <c r="C1340">
@@ -18428,7 +18428,7 @@
     <row r="1379">
       <c r="B1379" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1379">
@@ -18448,7 +18448,7 @@
         <v>38</v>
       </c>
       <c r="D1380">
-        <v>0.0009036860879904875</v>
+        <v>0.0009036860879904876</v>
       </c>
     </row>
     <row r="1381">
@@ -18524,7 +18524,7 @@
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1386">
@@ -18550,7 +18550,7 @@
     <row r="1388">
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Amaxac de Guerero</t>
+          <t>Amaxac De Guerero</t>
         </is>
       </c>
       <c r="C1388">
@@ -18563,7 +18563,7 @@
     <row r="1389">
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1389">
@@ -18641,7 +18641,7 @@
     <row r="1395">
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1395">
@@ -18706,7 +18706,7 @@
     <row r="1400">
       <c r="B1400" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1400">
@@ -18745,7 +18745,7 @@
     <row r="1403">
       <c r="B1403" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1403">
@@ -18758,7 +18758,7 @@
     <row r="1404">
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1404">
@@ -18823,7 +18823,7 @@
     <row r="1409">
       <c r="B1409" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1409">
@@ -18888,7 +18888,7 @@
     <row r="1414">
       <c r="B1414" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1414">
@@ -18927,7 +18927,7 @@
     <row r="1417">
       <c r="B1417" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1417">
@@ -19192,7 +19192,7 @@
     <row r="1437">
       <c r="B1437" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1437">
@@ -19231,7 +19231,7 @@
     <row r="1440">
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1440">
@@ -19348,7 +19348,7 @@
     <row r="1449">
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1449">
@@ -19387,7 +19387,7 @@
     <row r="1452">
       <c r="B1452" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1452">
@@ -19413,7 +19413,7 @@
     <row r="1454">
       <c r="B1454" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1454">
@@ -19602,7 +19602,7 @@
         <v>38</v>
       </c>
       <c r="D1468">
-        <v>0.0009036860879904875</v>
+        <v>0.0009036860879904876</v>
       </c>
     </row>
     <row r="1469">
@@ -19621,7 +19621,7 @@
     <row r="1470">
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1470">
@@ -19634,7 +19634,7 @@
     <row r="1471">
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1471">
@@ -19829,7 +19829,7 @@
     <row r="1486">
       <c r="B1486" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1486">
@@ -19842,7 +19842,7 @@
     <row r="1487">
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1487">
@@ -19881,7 +19881,7 @@
     <row r="1490">
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1490">
@@ -19894,7 +19894,7 @@
     <row r="1491">
       <c r="B1491" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1491">
@@ -19907,7 +19907,7 @@
     <row r="1492">
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1492">
@@ -19920,7 +19920,7 @@
     <row r="1493">
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1493">
@@ -20037,7 +20037,7 @@
     <row r="1502">
       <c r="B1502" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1502">
@@ -20076,7 +20076,7 @@
     <row r="1505">
       <c r="B1505" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1505">
@@ -20102,7 +20102,7 @@
     <row r="1507">
       <c r="B1507" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1507">
@@ -20115,7 +20115,7 @@
     <row r="1508">
       <c r="B1508" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1508">
@@ -20154,7 +20154,7 @@
     <row r="1511">
       <c r="B1511" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1511">
@@ -20232,7 +20232,7 @@
     <row r="1517">
       <c r="B1517" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1517">
@@ -20330,7 +20330,7 @@
         <v>38</v>
       </c>
       <c r="D1524">
-        <v>0.0009036860879904875</v>
+        <v>0.0009036860879904876</v>
       </c>
     </row>
     <row r="1525">
@@ -20349,7 +20349,7 @@
     <row r="1526">
       <c r="B1526" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1526">
@@ -20388,7 +20388,7 @@
     <row r="1529">
       <c r="B1529" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1529">
@@ -20401,7 +20401,7 @@
     <row r="1530">
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1530">
@@ -20453,7 +20453,7 @@
     <row r="1534">
       <c r="B1534" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1534">
@@ -20570,7 +20570,7 @@
     <row r="1543">
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1543">
@@ -20596,7 +20596,7 @@
     <row r="1545">
       <c r="B1545" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1545">
@@ -20869,7 +20869,7 @@
     <row r="1566">
       <c r="B1566" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1566">
@@ -20986,7 +20986,7 @@
     <row r="1575">
       <c r="B1575" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1575">
@@ -21129,7 +21129,7 @@
     <row r="1586">
       <c r="B1586" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1586">
@@ -21142,7 +21142,7 @@
     <row r="1587">
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1587">
@@ -21334,7 +21334,7 @@
     <row r="1601">
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1601">
@@ -21360,7 +21360,7 @@
     <row r="1603">
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1603">
@@ -21386,7 +21386,7 @@
     <row r="1605">
       <c r="B1605" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1605">
@@ -21516,7 +21516,7 @@
     <row r="1615">
       <c r="B1615" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1615">
@@ -21594,7 +21594,7 @@
     <row r="1621">
       <c r="B1621" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1621">
@@ -21659,7 +21659,7 @@
     <row r="1626">
       <c r="B1626" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1626">
@@ -21672,7 +21672,7 @@
     <row r="1627">
       <c r="B1627" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1627">
@@ -21757,7 +21757,7 @@
         <v>38</v>
       </c>
       <c r="D1633">
-        <v>0.0009036860879904875</v>
+        <v>0.0009036860879904876</v>
       </c>
     </row>
     <row r="1634">
@@ -21815,7 +21815,7 @@
     <row r="1638">
       <c r="B1638" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1638">
@@ -21828,7 +21828,7 @@
     <row r="1639">
       <c r="B1639" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1639">
@@ -21841,7 +21841,7 @@
     <row r="1640">
       <c r="B1640" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1640">
@@ -21880,7 +21880,7 @@
     <row r="1643">
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1643">
@@ -21979,41 +21979,6 @@
       </c>
       <c r="D1650">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1652">
-      <c r="A1652" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1654">
-      <c r="A1654" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1656">
-      <c r="A1656" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
